--- a/data/trans_orig/Q03B_LAB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_LAB-Clase-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.105531168656953</v>
+        <v>1.105228806170046</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.310160430852663</v>
+        <v>1.296995552491957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.743071123791012</v>
+        <v>1.744695856251706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.448960057928707</v>
+        <v>2.477636644901568</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.951018774735177</v>
+        <v>2.953599069864416</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.840440662502996</v>
+        <v>2.832297243040615</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.674781091563766</v>
+        <v>1.685833779615879</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.028274639226764</v>
+        <v>2.020416594713955</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.270139769807192</v>
+        <v>2.264698800172678</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.386760921776149</v>
+        <v>1.396111107407646</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.616212814218193</v>
+        <v>1.614888673971631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.005635570709853</v>
+        <v>2.011015463380964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.903631371443465</v>
+        <v>2.869654364818752</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.424366211257492</v>
+        <v>3.405824320623229</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.216510541652474</v>
+        <v>3.211189400113566</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.939006744770697</v>
+        <v>1.941676321241644</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.318444363110494</v>
+        <v>2.330353443105964</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.514128220489078</v>
+        <v>2.504862091686523</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.096390904284045</v>
+        <v>1.090587774556045</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.517731046028396</v>
+        <v>1.528657117776045</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.615598543223932</v>
+        <v>1.617982665747238</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.876277536720777</v>
+        <v>2.90410572154694</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.171594496666603</v>
+        <v>3.197907016278818</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.083180208283469</v>
+        <v>3.075761102487951</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.042954661889925</v>
+        <v>2.041167232605286</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.315634829038022</v>
+        <v>2.307060171425669</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.373828595559372</v>
+        <v>2.386874825532634</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.446879609019667</v>
+        <v>1.427303831095524</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.809599414186809</v>
+        <v>1.817858672226124</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.903831172629107</v>
+        <v>1.87357880959372</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.332236595428874</v>
+        <v>3.351101497633368</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.663589601631922</v>
+        <v>3.652929846926233</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.527342190831055</v>
+        <v>3.550566233478915</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.348194567363747</v>
+        <v>2.357555378774575</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.60110082300235</v>
+        <v>2.596285400950618</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.676162947354352</v>
+        <v>2.673943514178174</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.213443195222091</v>
+        <v>1.211675967441491</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.510521384355008</v>
+        <v>1.495954423395455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.652505325977151</v>
+        <v>1.665693344826674</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.595428185079036</v>
+        <v>3.571204560010956</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.306921999392949</v>
+        <v>3.318561226199806</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.14403527633236</v>
+        <v>3.204400539790614</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.821163166901277</v>
+        <v>1.813215616734567</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.06754390341123</v>
+        <v>2.057458665502315</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.079304203632145</v>
+        <v>2.087419141336839</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.586980932455008</v>
+        <v>1.593633579623361</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.768567875038495</v>
+        <v>1.778932517759817</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.937521935279768</v>
+        <v>1.957260569025174</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.377240741639578</v>
+        <v>4.31355699066871</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.869197835824722</v>
+        <v>3.902789332687039</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.805484013664644</v>
+        <v>3.828266223086997</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.185420904354874</v>
+        <v>2.196725162367897</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.3483138010908</v>
+        <v>2.360166770357399</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.364733786639817</v>
+        <v>2.36704297292261</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.166800613374118</v>
+        <v>1.172259339912465</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.322688009446168</v>
+        <v>1.324881343688018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.60923126962611</v>
+        <v>1.606870569065127</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.471835197590641</v>
+        <v>3.480305585578821</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.636285222228859</v>
+        <v>3.624694600538546</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.309914442488398</v>
+        <v>3.307529093579704</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.034414147455295</v>
+        <v>2.03304835949379</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.256683025638716</v>
+        <v>2.257789638027987</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.359825763724297</v>
+        <v>2.361847126357153</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.400637353256561</v>
+        <v>1.393533343050372</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.51386693069123</v>
+        <v>1.510435189715254</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.807934367203143</v>
+        <v>1.809359885788724</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.826257808956298</v>
+        <v>3.8332530410709</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.945671232487756</v>
+        <v>3.942867762110562</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.588677825855469</v>
+        <v>3.586914886406607</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.259695935032721</v>
+        <v>2.254858784825725</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.461573857323459</v>
+        <v>2.472782916559889</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.552291811596594</v>
+        <v>2.551831580667998</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9608617340402863</v>
+        <v>0.9554553353140022</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.321284796341338</v>
+        <v>1.303607042813805</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.513686948804716</v>
+        <v>1.509416457680532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.033782930619935</v>
+        <v>4.038246266468282</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.824294619737379</v>
+        <v>3.829531082171402</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.82844304592706</v>
+        <v>3.819317016333149</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.899296596196861</v>
+        <v>2.865714751346742</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.833868990136994</v>
+        <v>2.83679980928942</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.818787402654193</v>
+        <v>2.808962217601519</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.301894774320522</v>
+        <v>1.303852819783761</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.588613089310288</v>
+        <v>1.580528522693102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.747441807954645</v>
+        <v>1.740470271307609</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.467634163853402</v>
+        <v>4.475874659277244</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.175904372109581</v>
+        <v>4.167308758427404</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.137430155872249</v>
+        <v>4.138338106641186</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.271708726678301</v>
+        <v>3.239371555204715</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.11511850970696</v>
+        <v>3.097711108184204</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.064338496745316</v>
+        <v>3.04627749535199</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5101133064012675</v>
+        <v>0.5066214650110731</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6833196009307875</v>
+        <v>0.6757483449060315</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.073434029971503</v>
+        <v>1.07982577047146</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.352535472594939</v>
+        <v>3.355303141693665</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.150810276906077</v>
+        <v>3.156545982126615</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.281473496082841</v>
+        <v>3.283008834399897</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.824460746186369</v>
+        <v>2.81281798713563</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.675269410013165</v>
+        <v>2.695354566708609</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.836566121444731</v>
+        <v>2.84659901937427</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7978097408806802</v>
+        <v>0.8027405315595207</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.066138711646381</v>
+        <v>1.031077079566615</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.378473301058422</v>
+        <v>1.400693132089846</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.651630792026509</v>
+        <v>3.637903202877085</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.435737557266441</v>
+        <v>3.440548143023836</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.539261065118536</v>
+        <v>3.547871622853586</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.089653753942571</v>
+        <v>3.070458416308414</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.958356417784584</v>
+        <v>2.965422251721694</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.084874505502643</v>
+        <v>3.094595841460641</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.145081315290589</v>
+        <v>1.150379934001257</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.390681986638913</v>
+        <v>1.391351094701692</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.637764237951185</v>
+        <v>1.634801416759574</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.473399511911273</v>
+        <v>3.469464750178173</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.49442689095833</v>
+        <v>3.492293752820338</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.415821935474899</v>
+        <v>3.416682617885539</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.348254850586275</v>
+        <v>2.343468744412437</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.480031750828349</v>
+        <v>2.477350673968449</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.574830398897578</v>
+        <v>2.578249804113233</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.274470898756632</v>
+        <v>1.272396418480993</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.506084796420159</v>
+        <v>1.503298002508236</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.743403468179087</v>
+        <v>1.744402972457233</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.636216196744988</v>
+        <v>3.639829282588722</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.643936101843258</v>
+        <v>3.642168822269459</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.563098419515951</v>
+        <v>3.559408809254795</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.468598567187838</v>
+        <v>2.474455624542696</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.582231896186078</v>
+        <v>2.593609496076627</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.676500800786343</v>
+        <v>2.67213690387495</v>
       </c>
     </row>
     <row r="25">
